--- a/data/evaluation/evaluation_South_Winter_Grapefruits.xlsx
+++ b/data/evaluation/evaluation_South_Winter_Grapefruits.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2252.703067984386</v>
+        <v>2275.953249513905</v>
       </c>
       <c r="C4" t="n">
-        <v>7174279.500317096</v>
+        <v>7342922.854504978</v>
       </c>
       <c r="D4" t="n">
-        <v>2678.484552936062</v>
+        <v>2709.782805780747</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0539979005214174</v>
+        <v>0.03176055012019663</v>
       </c>
     </row>
     <row r="5">
